--- a/checks/test_hist/word_order_hist.xlsx
+++ b/checks/test_hist/word_order_hist.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>Unique_nouns</t>
+  </si>
+  <si>
+    <t>Unique_verbs</t>
   </si>
   <si>
     <t>Nlen_freq</t>
@@ -428,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,145 +477,190 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2">
+        <v>409</v>
+      </c>
+      <c r="D2">
+        <v>734</v>
+      </c>
+      <c r="E2">
+        <v>782</v>
+      </c>
+      <c r="F2">
         <v>6.01344537815126</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>7.128169014084507</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>6.614441416893733</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>7.332480818414322</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>0.1710144927536232</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.8436171148957508</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>-1.114723635933247</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
+        <v>882</v>
+      </c>
+      <c r="D3">
+        <v>2068</v>
+      </c>
+      <c r="E3">
+        <v>1297</v>
+      </c>
+      <c r="F3">
         <v>4.952865378094269</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>5.229932677369239</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>5.336557059961315</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>5.422513492675405</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>6.884615384615385</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.9470227789979239</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>-0.2770672992749699</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>4.745375700841009</v>
+        <v>31688</v>
       </c>
       <c r="D4">
-        <v>3.054370268410186</v>
+        <v>16698</v>
       </c>
       <c r="E4">
-        <v>6.042947833287331</v>
+        <v>10581</v>
       </c>
       <c r="F4">
-        <v>6.319444444444445</v>
+        <v>4.734268878037985</v>
       </c>
       <c r="G4">
-        <v>1.904328018223235</v>
+        <v>3.825290787898494</v>
       </c>
       <c r="H4">
-        <v>1.553634721343395</v>
+        <v>6.057312252964427</v>
       </c>
       <c r="I4">
-        <v>1.691005432430823</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
+        <v>5.028447216709195</v>
+      </c>
+      <c r="J4">
+        <v>1.794319743472286</v>
+      </c>
+      <c r="K4">
+        <v>1.23762326592663</v>
+      </c>
+      <c r="L4">
+        <v>0.9089780901394908</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5">
+        <v>6236</v>
+      </c>
+      <c r="D5">
+        <v>8243</v>
+      </c>
+      <c r="E5">
+        <v>7966</v>
+      </c>
+      <c r="F5">
         <v>8.307227702838736</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>8.814446411832101</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>8.912289215091592</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>9.575696711021843</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>0.3836942675159236</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>0.942455976780062</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>-0.5072187089933653</v>
       </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
